--- a/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
@@ -860,6 +860,9 @@
       <c r="C51" t="str">
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -921,7 +924,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515551051515301020101051055545551515113010510515586154151515108855151258100</v>
+        <v>015155510515153010201010510555455515151130105105155861541515151088551512581015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -864,9 +864,159 @@
         <v>15</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>4</v>
+      </c>
+      <c r="C64" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F65" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>249_小灵感_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -924,7 +1074,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015155510515153010201010510555455515151130105105155861541515151088551512581015</v>
+        <v>01515551051515301020101051055545551515113010510515586154151515108855151258101515510105521015301015151510101515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-29.xlsx
@@ -1076,6 +1076,9 @@
       <c r="G2" t="str">
         <v>01515551051515301020101051055545551515113010510515586154151515108855151258101515510105521015301015151510101515</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
